--- a/data/pca/factorExposure/factorExposure_2009-01-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-15.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01695535209343523</v>
+        <v>-0.01581455710498832</v>
       </c>
       <c r="C2">
-        <v>0.008305010935933698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01074242767059349</v>
+      </c>
+      <c r="D2">
+        <v>0.01419187855140624</v>
+      </c>
+      <c r="E2">
+        <v>0.001958540181906986</v>
+      </c>
+      <c r="F2">
+        <v>-0.01139263765006801</v>
+      </c>
+      <c r="G2">
+        <v>-0.01513125490996835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08034338888412017</v>
+        <v>-0.0828474535891463</v>
       </c>
       <c r="C4">
-        <v>0.08366646931341828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08654734004618436</v>
+      </c>
+      <c r="D4">
+        <v>-0.05991155006692046</v>
+      </c>
+      <c r="E4">
+        <v>-0.03221087734901268</v>
+      </c>
+      <c r="F4">
+        <v>-0.02866797435135254</v>
+      </c>
+      <c r="G4">
+        <v>-0.03027133558258619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003694448803399282</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.001386384767828818</v>
+      </c>
+      <c r="D5">
+        <v>-0.002951405383526284</v>
+      </c>
+      <c r="E5">
+        <v>0.00278517660017745</v>
+      </c>
+      <c r="F5">
+        <v>0.002983462416209904</v>
+      </c>
+      <c r="G5">
+        <v>0.002060239310553362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1681919184015949</v>
+        <v>-0.1691446992213363</v>
       </c>
       <c r="C6">
-        <v>-0.02187618424976468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.01117977989205979</v>
+      </c>
+      <c r="D6">
+        <v>-0.04458354078798559</v>
+      </c>
+      <c r="E6">
+        <v>-0.03265664289405364</v>
+      </c>
+      <c r="F6">
+        <v>0.06316006363361268</v>
+      </c>
+      <c r="G6">
+        <v>-0.0001888647344611351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05428161694587398</v>
+        <v>-0.05798680511136912</v>
       </c>
       <c r="C7">
-        <v>0.05914143306638123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06319455339000878</v>
+      </c>
+      <c r="D7">
+        <v>-0.0387981730994103</v>
+      </c>
+      <c r="E7">
+        <v>-0.06958006165448385</v>
+      </c>
+      <c r="F7">
+        <v>-0.06002626198875942</v>
+      </c>
+      <c r="G7">
+        <v>-0.04635955095709576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05495088663706602</v>
+        <v>-0.05154799563510372</v>
       </c>
       <c r="C8">
-        <v>0.05448883941089629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05372965778749831</v>
+      </c>
+      <c r="D8">
+        <v>0.01169316614315434</v>
+      </c>
+      <c r="E8">
+        <v>0.005793648902122472</v>
+      </c>
+      <c r="F8">
+        <v>-0.04219797616496329</v>
+      </c>
+      <c r="G8">
+        <v>-0.0001342892942866264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05920846848151635</v>
+        <v>-0.06288663841214143</v>
       </c>
       <c r="C9">
-        <v>0.0887180796875449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09006376947005004</v>
+      </c>
+      <c r="D9">
+        <v>-0.08306543354283855</v>
+      </c>
+      <c r="E9">
+        <v>-0.04502915255488267</v>
+      </c>
+      <c r="F9">
+        <v>-0.05422428402421756</v>
+      </c>
+      <c r="G9">
+        <v>-0.00516952032756008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1105686834530804</v>
+        <v>-0.1016811542979416</v>
       </c>
       <c r="C10">
-        <v>-0.1437712155917462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1346733365722866</v>
+      </c>
+      <c r="D10">
+        <v>0.09246568329564532</v>
+      </c>
+      <c r="E10">
+        <v>0.0444684804807411</v>
+      </c>
+      <c r="F10">
+        <v>-0.05114068117298134</v>
+      </c>
+      <c r="G10">
+        <v>0.02209074057246639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07715648913304454</v>
+        <v>-0.07556499985755871</v>
       </c>
       <c r="C11">
-        <v>0.1275986182703772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1268158272810967</v>
+      </c>
+      <c r="D11">
+        <v>-0.05599476790645966</v>
+      </c>
+      <c r="E11">
+        <v>-0.01053113964552541</v>
+      </c>
+      <c r="F11">
+        <v>-0.07631914000466093</v>
+      </c>
+      <c r="G11">
+        <v>0.001962905128258763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.07990054450182806</v>
+        <v>-0.07639168359108656</v>
       </c>
       <c r="C12">
-        <v>0.1529871088354137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1508615438603749</v>
+      </c>
+      <c r="D12">
+        <v>-0.06303597556247825</v>
+      </c>
+      <c r="E12">
+        <v>-0.0168403398619646</v>
+      </c>
+      <c r="F12">
+        <v>-0.07956169952565473</v>
+      </c>
+      <c r="G12">
+        <v>-0.005510796847500866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04054035139039045</v>
+        <v>-0.04178212139136939</v>
       </c>
       <c r="C13">
-        <v>0.0661309325449532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07073839274122735</v>
+      </c>
+      <c r="D13">
+        <v>-0.02763261713303622</v>
+      </c>
+      <c r="E13">
+        <v>-0.02358449630710352</v>
+      </c>
+      <c r="F13">
+        <v>-0.07529454936576153</v>
+      </c>
+      <c r="G13">
+        <v>-0.01380025391976655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01979109549023178</v>
+        <v>-0.02287478309987579</v>
       </c>
       <c r="C14">
-        <v>0.04450346956516073</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.04497376179162338</v>
+      </c>
+      <c r="D14">
+        <v>-0.05376341951682165</v>
+      </c>
+      <c r="E14">
+        <v>-0.01004009538908167</v>
+      </c>
+      <c r="F14">
+        <v>-0.07900379596072252</v>
+      </c>
+      <c r="G14">
+        <v>0.007780978985810831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03110230160332904</v>
+        <v>-0.03356792945016197</v>
       </c>
       <c r="C15">
-        <v>0.05893295488517321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.05759854880523453</v>
+      </c>
+      <c r="D15">
+        <v>-0.03931529797468753</v>
+      </c>
+      <c r="E15">
+        <v>-0.03406981467795189</v>
+      </c>
+      <c r="F15">
+        <v>-0.0266622320004093</v>
+      </c>
+      <c r="G15">
+        <v>0.009760348508319069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05603441026972428</v>
+        <v>-0.05615999136852965</v>
       </c>
       <c r="C16">
-        <v>0.1484444419474429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1476145060831268</v>
+      </c>
+      <c r="D16">
+        <v>-0.07358465642160338</v>
+      </c>
+      <c r="E16">
+        <v>0.00499271784686462</v>
+      </c>
+      <c r="F16">
+        <v>-0.07368530918294786</v>
+      </c>
+      <c r="G16">
+        <v>-0.003228116501333341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.00613952571054155</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004136097826436354</v>
+      </c>
+      <c r="D17">
+        <v>-0.003499940867710089</v>
+      </c>
+      <c r="E17">
+        <v>0.007953804238212615</v>
+      </c>
+      <c r="F17">
+        <v>0.007214422405412713</v>
+      </c>
+      <c r="G17">
+        <v>0.01533361854475617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03743498180310589</v>
+        <v>-0.05219559841582001</v>
       </c>
       <c r="C18">
-        <v>0.05152511140113345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04561639976492102</v>
+      </c>
+      <c r="D18">
+        <v>0.006374922487077854</v>
+      </c>
+      <c r="E18">
+        <v>0.001415958063629354</v>
+      </c>
+      <c r="F18">
+        <v>0.05970687329488155</v>
+      </c>
+      <c r="G18">
+        <v>0.01096488707398937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05701536677243527</v>
+        <v>-0.05662130558066664</v>
       </c>
       <c r="C20">
-        <v>0.09531841226842737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.09434589016218814</v>
+      </c>
+      <c r="D20">
+        <v>-0.08589553921958083</v>
+      </c>
+      <c r="E20">
+        <v>-0.02313231753512723</v>
+      </c>
+      <c r="F20">
+        <v>-0.07026214336942818</v>
+      </c>
+      <c r="G20">
+        <v>0.003566358356799513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0438877211134</v>
+        <v>-0.0451148136127076</v>
       </c>
       <c r="C21">
-        <v>0.0619957108495594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.05929721707977802</v>
+      </c>
+      <c r="D21">
+        <v>-0.009487087130831904</v>
+      </c>
+      <c r="E21">
+        <v>-0.0211326240832994</v>
+      </c>
+      <c r="F21">
+        <v>-0.06742085070250081</v>
+      </c>
+      <c r="G21">
+        <v>-0.02104516963956381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04584352958886519</v>
+        <v>-0.04462728504655668</v>
       </c>
       <c r="C22">
-        <v>0.0258303402890008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03264773437285934</v>
+      </c>
+      <c r="D22">
+        <v>-0.004862157969737825</v>
+      </c>
+      <c r="E22">
+        <v>0.1551572321427872</v>
+      </c>
+      <c r="F22">
+        <v>0.01499004444419571</v>
+      </c>
+      <c r="G22">
+        <v>-0.001165429375717296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04585306212466499</v>
+        <v>-0.04463540301392145</v>
       </c>
       <c r="C23">
-        <v>0.02582315526920218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03264159867145689</v>
+      </c>
+      <c r="D23">
+        <v>-0.004846754606719096</v>
+      </c>
+      <c r="E23">
+        <v>0.1552026063723375</v>
+      </c>
+      <c r="F23">
+        <v>0.0149781614962463</v>
+      </c>
+      <c r="G23">
+        <v>-0.001124322334571892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06438146842639302</v>
+        <v>-0.06429136756682997</v>
       </c>
       <c r="C24">
-        <v>0.1365598939881844</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.133794314507222</v>
+      </c>
+      <c r="D24">
+        <v>-0.06360075018365659</v>
+      </c>
+      <c r="E24">
+        <v>-0.01536588775222253</v>
+      </c>
+      <c r="F24">
+        <v>-0.07117369461364083</v>
+      </c>
+      <c r="G24">
+        <v>-0.007036140386034825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0702881532940213</v>
+        <v>-0.06938986401212248</v>
       </c>
       <c r="C25">
-        <v>0.1199568170778339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1182303226283653</v>
+      </c>
+      <c r="D25">
+        <v>-0.0350645675872223</v>
+      </c>
+      <c r="E25">
+        <v>-0.03438558637842059</v>
+      </c>
+      <c r="F25">
+        <v>-0.08926242667229077</v>
+      </c>
+      <c r="G25">
+        <v>-0.00850209646085625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05601293380608793</v>
+        <v>-0.0598474855492509</v>
       </c>
       <c r="C26">
-        <v>0.06731712315184811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.06969736411380036</v>
+      </c>
+      <c r="D26">
+        <v>-0.03167163173404508</v>
+      </c>
+      <c r="E26">
+        <v>-0.004968662125774802</v>
+      </c>
+      <c r="F26">
+        <v>-0.08248975732570481</v>
+      </c>
+      <c r="G26">
+        <v>0.002266030727849982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1721883390835718</v>
+        <v>-0.1752203562763675</v>
       </c>
       <c r="C28">
-        <v>-0.2270129131236297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2282257253029834</v>
+      </c>
+      <c r="D28">
+        <v>0.04067095687870213</v>
+      </c>
+      <c r="E28">
+        <v>-0.05355213624399788</v>
+      </c>
+      <c r="F28">
+        <v>-0.1418199251058673</v>
+      </c>
+      <c r="G28">
+        <v>0.007680550804052211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02369865202953958</v>
+        <v>-0.02637960354416662</v>
       </c>
       <c r="C29">
-        <v>0.05118527682637756</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.0493635526007527</v>
+      </c>
+      <c r="D29">
+        <v>-0.02350083833089418</v>
+      </c>
+      <c r="E29">
+        <v>0.009716094352137912</v>
+      </c>
+      <c r="F29">
+        <v>-0.07454782210094051</v>
+      </c>
+      <c r="G29">
+        <v>0.004295590381680286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03825606426602576</v>
+        <v>-0.04018247852370311</v>
       </c>
       <c r="C30">
-        <v>0.0689852897339033</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07567586258353953</v>
+      </c>
+      <c r="D30">
+        <v>-0.08870898459236366</v>
+      </c>
+      <c r="E30">
+        <v>-0.1172900791780177</v>
+      </c>
+      <c r="F30">
+        <v>-0.06491988764259991</v>
+      </c>
+      <c r="G30">
+        <v>0.01024248580063204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05203906118511773</v>
+        <v>-0.05151328549415779</v>
       </c>
       <c r="C31">
-        <v>0.03329114944728059</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03574089098496785</v>
+      </c>
+      <c r="D31">
+        <v>-0.02638037366420175</v>
+      </c>
+      <c r="E31">
+        <v>0.02750923998236664</v>
+      </c>
+      <c r="F31">
+        <v>-0.0206228316937378</v>
+      </c>
+      <c r="G31">
+        <v>-0.02292502321320965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04431538579230598</v>
+        <v>-0.04868121907832218</v>
       </c>
       <c r="C32">
-        <v>0.05346626623824963</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05133029187854806</v>
+      </c>
+      <c r="D32">
+        <v>-0.03028819797284651</v>
+      </c>
+      <c r="E32">
+        <v>0.005583468146531346</v>
+      </c>
+      <c r="F32">
+        <v>-0.007242814975294254</v>
+      </c>
+      <c r="G32">
+        <v>0.005647284958578113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07913732799302906</v>
+        <v>-0.08195172628682589</v>
       </c>
       <c r="C33">
-        <v>0.1135797047107581</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1227010532026731</v>
+      </c>
+      <c r="D33">
+        <v>-0.07447742536039884</v>
+      </c>
+      <c r="E33">
+        <v>-0.02262154492205948</v>
+      </c>
+      <c r="F33">
+        <v>-0.07086356347963195</v>
+      </c>
+      <c r="G33">
+        <v>0.002575232420988343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05362307342385304</v>
+        <v>-0.05399072065350198</v>
       </c>
       <c r="C34">
-        <v>0.1228048593398552</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.122711996980678</v>
+      </c>
+      <c r="D34">
+        <v>-0.06652350540145356</v>
+      </c>
+      <c r="E34">
+        <v>-0.05004382967726024</v>
+      </c>
+      <c r="F34">
+        <v>-0.08041023526089403</v>
+      </c>
+      <c r="G34">
+        <v>0.02390614019521899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02593947545402117</v>
+        <v>-0.02885890922850558</v>
       </c>
       <c r="C35">
-        <v>0.01518347282383098</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.01770238217169112</v>
+      </c>
+      <c r="D35">
+        <v>-0.02834049370454574</v>
+      </c>
+      <c r="E35">
+        <v>0.01117132033126969</v>
+      </c>
+      <c r="F35">
+        <v>-0.03490561992634538</v>
+      </c>
+      <c r="G35">
+        <v>0.0281537181534373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02307794582057728</v>
+        <v>-0.02710223004417387</v>
       </c>
       <c r="C36">
-        <v>0.05149197494962354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05083188632230128</v>
+      </c>
+      <c r="D36">
+        <v>-0.06373183607572977</v>
+      </c>
+      <c r="E36">
+        <v>-0.01134148093493654</v>
+      </c>
+      <c r="F36">
+        <v>-0.02655073556155239</v>
+      </c>
+      <c r="G36">
+        <v>0.08073927628117471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0001851817467107731</v>
+        <v>-0.003523237035767062</v>
       </c>
       <c r="C37">
-        <v>-0.0003301940751270564</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.007434102586431959</v>
+      </c>
+      <c r="D37">
+        <v>-0.001651565847743877</v>
+      </c>
+      <c r="E37">
+        <v>-0.00132422899696246</v>
+      </c>
+      <c r="F37">
+        <v>-0.01040126875519571</v>
+      </c>
+      <c r="G37">
+        <v>-0.006367130241863824</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08061451630060371</v>
+        <v>-0.07533168598766864</v>
       </c>
       <c r="C39">
-        <v>0.1485407183844479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1428403015475027</v>
+      </c>
+      <c r="D39">
+        <v>-0.04159693204920436</v>
+      </c>
+      <c r="E39">
+        <v>0.005936866839586134</v>
+      </c>
+      <c r="F39">
+        <v>-0.1319137698391027</v>
+      </c>
+      <c r="G39">
+        <v>-0.04320094024124858</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04497694531738976</v>
+        <v>-0.04967575919937701</v>
       </c>
       <c r="C40">
-        <v>0.06789537611358179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.07393699253451551</v>
+      </c>
+      <c r="D40">
+        <v>-0.01826545835612734</v>
+      </c>
+      <c r="E40">
+        <v>-0.004328294644072092</v>
+      </c>
+      <c r="F40">
+        <v>-0.0484559984568969</v>
+      </c>
+      <c r="G40">
+        <v>0.04025855345534946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02655964054306858</v>
+        <v>-0.02841676817253557</v>
       </c>
       <c r="C41">
-        <v>0.02284454762660356</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.0236318696781645</v>
+      </c>
+      <c r="D41">
+        <v>0.005125085503080231</v>
+      </c>
+      <c r="E41">
+        <v>0.008835284298638172</v>
+      </c>
+      <c r="F41">
+        <v>0.01023771955782822</v>
+      </c>
+      <c r="G41">
+        <v>0.01287130057326439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04188539887015391</v>
+        <v>-0.04132841876978695</v>
       </c>
       <c r="C43">
-        <v>0.03877052156418234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03579541310790247</v>
+      </c>
+      <c r="D43">
+        <v>-0.01167247157058705</v>
+      </c>
+      <c r="E43">
+        <v>0.03301554367877908</v>
+      </c>
+      <c r="F43">
+        <v>-0.02634501496104847</v>
+      </c>
+      <c r="G43">
+        <v>0.000566643011596795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05468418737582145</v>
+        <v>-0.06227269773127379</v>
       </c>
       <c r="C44">
-        <v>0.08116582494079636</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.0840570631962954</v>
+      </c>
+      <c r="D44">
+        <v>-0.2442542122280667</v>
+      </c>
+      <c r="E44">
+        <v>-0.1574839313804428</v>
+      </c>
+      <c r="F44">
+        <v>-0.1258931925951536</v>
+      </c>
+      <c r="G44">
+        <v>0.1631980575610604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0005916752084655399</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0007989706312687441</v>
+      </c>
+      <c r="D45">
+        <v>0.001646172173192859</v>
+      </c>
+      <c r="E45">
+        <v>-0.001302837865771085</v>
+      </c>
+      <c r="F45">
+        <v>0.00360374559725009</v>
+      </c>
+      <c r="G45">
+        <v>-0.004331247446193301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02881212017854487</v>
+        <v>-0.02889448599275095</v>
       </c>
       <c r="C46">
-        <v>0.03844153278935315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03690411937206262</v>
+      </c>
+      <c r="D46">
+        <v>-0.03134041499152948</v>
+      </c>
+      <c r="E46">
+        <v>0.02738864283069855</v>
+      </c>
+      <c r="F46">
+        <v>-0.07154033819990335</v>
+      </c>
+      <c r="G46">
+        <v>-0.02416187534731384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05295478378825032</v>
+        <v>-0.05247392130768623</v>
       </c>
       <c r="C47">
-        <v>0.03323273000677736</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.03397535862341802</v>
+      </c>
+      <c r="D47">
+        <v>-0.005155513496645616</v>
+      </c>
+      <c r="E47">
+        <v>0.05741461682108644</v>
+      </c>
+      <c r="F47">
+        <v>0.006023100647088936</v>
+      </c>
+      <c r="G47">
+        <v>-0.02621081019073073</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04621286788949982</v>
+        <v>-0.04926024061494837</v>
       </c>
       <c r="C48">
-        <v>0.0682400234468548</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06807445853077601</v>
+      </c>
+      <c r="D48">
+        <v>-0.0182044228396686</v>
+      </c>
+      <c r="E48">
+        <v>-0.03089338951199103</v>
+      </c>
+      <c r="F48">
+        <v>-0.0557187585087901</v>
+      </c>
+      <c r="G48">
+        <v>-0.02878583920343608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1931587952290254</v>
+        <v>-0.1969744727538054</v>
       </c>
       <c r="C49">
-        <v>-0.01496219807387143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01022344703451584</v>
+      </c>
+      <c r="D49">
+        <v>-0.02472637856504315</v>
+      </c>
+      <c r="E49">
+        <v>-0.03885335503441015</v>
+      </c>
+      <c r="F49">
+        <v>0.05551789458491713</v>
+      </c>
+      <c r="G49">
+        <v>-0.01449536348598899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05032581486464481</v>
+        <v>-0.05187108852280981</v>
       </c>
       <c r="C50">
-        <v>0.03227504538080986</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03485860458325832</v>
+      </c>
+      <c r="D50">
+        <v>-0.03266816761159109</v>
+      </c>
+      <c r="E50">
+        <v>0.01285226666262151</v>
+      </c>
+      <c r="F50">
+        <v>-0.009278203492199127</v>
+      </c>
+      <c r="G50">
+        <v>-0.0244021571532148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1426021341870697</v>
+        <v>-0.1366688326617899</v>
       </c>
       <c r="C52">
-        <v>0.03195849639735134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03263720657046544</v>
+      </c>
+      <c r="D52">
+        <v>-0.05733772077769397</v>
+      </c>
+      <c r="E52">
+        <v>0.01742744380771939</v>
+      </c>
+      <c r="F52">
+        <v>0.07605553442103538</v>
+      </c>
+      <c r="G52">
+        <v>-0.0345896581943207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1706938691281012</v>
+        <v>-0.162030883526901</v>
       </c>
       <c r="C53">
-        <v>-0.0132202575244463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.007613009670337395</v>
+      </c>
+      <c r="D53">
+        <v>-0.09685197549376251</v>
+      </c>
+      <c r="E53">
+        <v>0.01035863538202707</v>
+      </c>
+      <c r="F53">
+        <v>0.1261511907678436</v>
+      </c>
+      <c r="G53">
+        <v>-0.07128687871637863</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0110460146851501</v>
+        <v>-0.01386118025807244</v>
       </c>
       <c r="C54">
-        <v>0.03593868747955489</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.03579150744364066</v>
+      </c>
+      <c r="D54">
+        <v>-0.02364942573968225</v>
+      </c>
+      <c r="E54">
+        <v>0.00744997598803488</v>
+      </c>
+      <c r="F54">
+        <v>-0.0466022369088211</v>
+      </c>
+      <c r="G54">
+        <v>-0.004189630110352423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.121678609185267</v>
+        <v>-0.1184863397298897</v>
       </c>
       <c r="C55">
-        <v>0.008223373622424991</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01385245890874421</v>
+      </c>
+      <c r="D55">
+        <v>-0.08134115367909454</v>
+      </c>
+      <c r="E55">
+        <v>0.02929057098824205</v>
+      </c>
+      <c r="F55">
+        <v>0.044251461983636</v>
+      </c>
+      <c r="G55">
+        <v>-0.06705203481477143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.179943493110397</v>
+        <v>-0.1724641037076537</v>
       </c>
       <c r="C56">
-        <v>-0.01159455840646027</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.008851459967326968</v>
+      </c>
+      <c r="D56">
+        <v>-0.05793342042744789</v>
+      </c>
+      <c r="E56">
+        <v>0.04423625337756405</v>
+      </c>
+      <c r="F56">
+        <v>0.1555074010514376</v>
+      </c>
+      <c r="G56">
+        <v>-0.07192060443648744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0428350265405374</v>
+        <v>-0.04318649278795671</v>
       </c>
       <c r="C58">
-        <v>0.0961823726946614</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1054545495693695</v>
+      </c>
+      <c r="D58">
+        <v>-0.0225140717888559</v>
+      </c>
+      <c r="E58">
+        <v>0.02958823628617838</v>
+      </c>
+      <c r="F58">
+        <v>-0.04418536286031191</v>
+      </c>
+      <c r="G58">
+        <v>-0.02094334969331635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1877991067270131</v>
+        <v>-0.1922195574056809</v>
       </c>
       <c r="C59">
-        <v>-0.1698733268929161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1764067800175434</v>
+      </c>
+      <c r="D59">
+        <v>0.07739656162485214</v>
+      </c>
+      <c r="E59">
+        <v>0.03989219237387182</v>
+      </c>
+      <c r="F59">
+        <v>-0.07818628396847364</v>
+      </c>
+      <c r="G59">
+        <v>-0.03924256475856711</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2142071324661833</v>
+        <v>-0.2091754625253326</v>
       </c>
       <c r="C60">
-        <v>0.00999091907311405</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.01438397266838806</v>
+      </c>
+      <c r="D60">
+        <v>0.04953757708155739</v>
+      </c>
+      <c r="E60">
+        <v>0.04666874298352129</v>
+      </c>
+      <c r="F60">
+        <v>0.1923065437669553</v>
+      </c>
+      <c r="G60">
+        <v>-0.09375309645615952</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06425305979659592</v>
+        <v>-0.06157364196220316</v>
       </c>
       <c r="C61">
-        <v>0.1228814323858384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1214054979301644</v>
+      </c>
+      <c r="D61">
+        <v>-0.04305037401527446</v>
+      </c>
+      <c r="E61">
+        <v>0.004217574670118484</v>
+      </c>
+      <c r="F61">
+        <v>-0.08805456360703995</v>
+      </c>
+      <c r="G61">
+        <v>-0.01788328328010357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1686492987514742</v>
+        <v>-0.1652121741512919</v>
       </c>
       <c r="C62">
-        <v>-0.00784283941045277</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.006041644746021959</v>
+      </c>
+      <c r="D62">
+        <v>-0.05292010443553765</v>
+      </c>
+      <c r="E62">
+        <v>0.03598267183821698</v>
+      </c>
+      <c r="F62">
+        <v>0.1262684804548042</v>
+      </c>
+      <c r="G62">
+        <v>-0.06119324159133382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03908872693323115</v>
+        <v>-0.0426483010090348</v>
       </c>
       <c r="C63">
-        <v>0.07442541031486986</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.07838681157140565</v>
+      </c>
+      <c r="D63">
+        <v>-0.03486092519070568</v>
+      </c>
+      <c r="E63">
+        <v>0.006900144886598871</v>
+      </c>
+      <c r="F63">
+        <v>-0.04984799768383127</v>
+      </c>
+      <c r="G63">
+        <v>0.0273681518086413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1128377862843716</v>
+        <v>-0.1100168500838683</v>
       </c>
       <c r="C64">
-        <v>0.05003156702857395</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.05471038595942426</v>
+      </c>
+      <c r="D64">
+        <v>-0.03874422930492562</v>
+      </c>
+      <c r="E64">
+        <v>0.003996334462677839</v>
+      </c>
+      <c r="F64">
+        <v>0.03583075548374856</v>
+      </c>
+      <c r="G64">
+        <v>-0.002167297107561934</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1590563232205926</v>
+        <v>-0.161807867809149</v>
       </c>
       <c r="C65">
-        <v>-0.05938770341080602</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04811375791616369</v>
+      </c>
+      <c r="D65">
+        <v>-0.04833287127811228</v>
+      </c>
+      <c r="E65">
+        <v>-0.0307004953271545</v>
+      </c>
+      <c r="F65">
+        <v>0.01874570008006007</v>
+      </c>
+      <c r="G65">
+        <v>-0.02360245915266716</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09777635050344939</v>
+        <v>-0.09179247771138721</v>
       </c>
       <c r="C66">
-        <v>0.127254027541028</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1272145498918856</v>
+      </c>
+      <c r="D66">
+        <v>-0.03862981249650656</v>
+      </c>
+      <c r="E66">
+        <v>-0.003234589890129951</v>
+      </c>
+      <c r="F66">
+        <v>-0.1029556614246235</v>
+      </c>
+      <c r="G66">
+        <v>0.00619560600420477</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0583478501208235</v>
+        <v>-0.04929782801997717</v>
       </c>
       <c r="C67">
-        <v>0.09384829440554827</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.08575568291375273</v>
+      </c>
+      <c r="D67">
+        <v>0.02177489497948874</v>
+      </c>
+      <c r="E67">
+        <v>0.09340979935079737</v>
+      </c>
+      <c r="F67">
+        <v>0.03345654149144094</v>
+      </c>
+      <c r="G67">
+        <v>0.0007982102233147322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.141328378233244</v>
+        <v>-0.1439711361479775</v>
       </c>
       <c r="C68">
-        <v>-0.2458344645040053</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2478958224781202</v>
+      </c>
+      <c r="D68">
+        <v>0.07055268666414627</v>
+      </c>
+      <c r="E68">
+        <v>-0.08648160965685374</v>
+      </c>
+      <c r="F68">
+        <v>-0.1221456386549292</v>
+      </c>
+      <c r="G68">
+        <v>-0.02039289292490476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03985092381850475</v>
+        <v>-0.03848200372086057</v>
       </c>
       <c r="C69">
-        <v>0.01592589781850606</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01819270050846914</v>
+      </c>
+      <c r="D69">
+        <v>-0.02801081596660545</v>
+      </c>
+      <c r="E69">
+        <v>0.05844576938962436</v>
+      </c>
+      <c r="F69">
+        <v>0.04171333520605803</v>
+      </c>
+      <c r="G69">
+        <v>0.02479824480095693</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07298132275763268</v>
+        <v>-0.07354638470827944</v>
       </c>
       <c r="C70">
-        <v>0.09535912968471544</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.09267396326065015</v>
+      </c>
+      <c r="D70">
+        <v>0.357863473987612</v>
+      </c>
+      <c r="E70">
+        <v>0.3873288342841339</v>
+      </c>
+      <c r="F70">
+        <v>0.2689412147974659</v>
+      </c>
+      <c r="G70">
+        <v>-0.428273133385328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1644064576259164</v>
+        <v>-0.1686380519162491</v>
       </c>
       <c r="C71">
-        <v>-0.2519459964403653</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.25156043246307</v>
+      </c>
+      <c r="D71">
+        <v>0.08081177169765495</v>
+      </c>
+      <c r="E71">
+        <v>-0.09501212996040827</v>
+      </c>
+      <c r="F71">
+        <v>-0.1242010299336699</v>
+      </c>
+      <c r="G71">
+        <v>-0.02101741067805676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1432856407369536</v>
+        <v>-0.1491235550232964</v>
       </c>
       <c r="C72">
-        <v>0.006696783293292578</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.006212219211528218</v>
+      </c>
+      <c r="D72">
+        <v>-0.07860828611301239</v>
+      </c>
+      <c r="E72">
+        <v>0.02929628054832452</v>
+      </c>
+      <c r="F72">
+        <v>0.02957853751774164</v>
+      </c>
+      <c r="G72">
+        <v>0.01118799978352751</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1919221276793815</v>
+        <v>-0.200178291762436</v>
       </c>
       <c r="C73">
-        <v>0.02422895460909395</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.03151151950310346</v>
+      </c>
+      <c r="D73">
+        <v>-0.08304759652877225</v>
+      </c>
+      <c r="E73">
+        <v>0.03524684658922031</v>
+      </c>
+      <c r="F73">
+        <v>0.1061229394806899</v>
+      </c>
+      <c r="G73">
+        <v>0.001004060549540279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08623547359596717</v>
+        <v>-0.08518278872415234</v>
       </c>
       <c r="C74">
-        <v>0.000342097812191651</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.007588443485171524</v>
+      </c>
+      <c r="D74">
+        <v>-0.07931722802259869</v>
+      </c>
+      <c r="E74">
+        <v>0.002638025932558833</v>
+      </c>
+      <c r="F74">
+        <v>0.07447414432956444</v>
+      </c>
+      <c r="G74">
+        <v>-0.0005396855814310602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1230823036978706</v>
+        <v>-0.1151777060012542</v>
       </c>
       <c r="C75">
-        <v>0.01878315312911895</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02179735854327582</v>
+      </c>
+      <c r="D75">
+        <v>-0.07109566705222536</v>
+      </c>
+      <c r="E75">
+        <v>0.05104639877971887</v>
+      </c>
+      <c r="F75">
+        <v>0.06769736287076336</v>
+      </c>
+      <c r="G75">
+        <v>-0.0408664216822116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0731916599021237</v>
+        <v>-0.08673821095386031</v>
       </c>
       <c r="C77">
-        <v>0.1141540167732905</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1172904791661782</v>
+      </c>
+      <c r="D77">
+        <v>-0.07714397932025646</v>
+      </c>
+      <c r="E77">
+        <v>-0.05041276587693168</v>
+      </c>
+      <c r="F77">
+        <v>-0.08436162950120253</v>
+      </c>
+      <c r="G77">
+        <v>-0.1168169554112974</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08545914089814494</v>
+        <v>-0.08980742773837605</v>
       </c>
       <c r="C78">
-        <v>0.1254628296494031</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1248482855395965</v>
+      </c>
+      <c r="D78">
+        <v>-0.06515094305701966</v>
+      </c>
+      <c r="E78">
+        <v>-0.03954588802586021</v>
+      </c>
+      <c r="F78">
+        <v>-0.1025912110448878</v>
+      </c>
+      <c r="G78">
+        <v>-0.0904587126719708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1667781374317643</v>
+        <v>-0.1622899184471566</v>
       </c>
       <c r="C79">
-        <v>0.01593196253956613</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.01861870882916226</v>
+      </c>
+      <c r="D79">
+        <v>-0.04319660458124092</v>
+      </c>
+      <c r="E79">
+        <v>0.03755746867832527</v>
+      </c>
+      <c r="F79">
+        <v>0.06106042737188568</v>
+      </c>
+      <c r="G79">
+        <v>-0.04146496909674952</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0750737587847482</v>
+        <v>-0.07236665949573547</v>
       </c>
       <c r="C80">
-        <v>0.07095156722320117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.06746970368841354</v>
+      </c>
+      <c r="D80">
+        <v>-0.02853706413531715</v>
+      </c>
+      <c r="E80">
+        <v>0.02969988014256442</v>
+      </c>
+      <c r="F80">
+        <v>-0.09598868699753782</v>
+      </c>
+      <c r="G80">
+        <v>0.09735284045323482</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1123879141234417</v>
+        <v>-0.1050053022562459</v>
       </c>
       <c r="C81">
-        <v>-0.0176201419787393</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01396752090575737</v>
+      </c>
+      <c r="D81">
+        <v>-0.04457448117197185</v>
+      </c>
+      <c r="E81">
+        <v>0.06663310326611131</v>
+      </c>
+      <c r="F81">
+        <v>0.07442804934376068</v>
+      </c>
+      <c r="G81">
+        <v>0.000176534426082775</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1611494011303896</v>
+        <v>-0.1566554259637028</v>
       </c>
       <c r="C82">
-        <v>-0.01893703233890064</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01397870933889096</v>
+      </c>
+      <c r="D82">
+        <v>-0.0853029454550893</v>
+      </c>
+      <c r="E82">
+        <v>-0.007840898984646511</v>
+      </c>
+      <c r="F82">
+        <v>0.1363864484390837</v>
+      </c>
+      <c r="G82">
+        <v>0.001000529554235382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05535917877850505</v>
+        <v>-0.05060974286233184</v>
       </c>
       <c r="C83">
-        <v>0.06671824706191216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06221044642889243</v>
+      </c>
+      <c r="D83">
+        <v>0.002945070267644843</v>
+      </c>
+      <c r="E83">
+        <v>0.003788214558877113</v>
+      </c>
+      <c r="F83">
+        <v>0.0002421778135326004</v>
+      </c>
+      <c r="G83">
+        <v>-0.01436985367210069</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04969837894857573</v>
+        <v>-0.04765305888656991</v>
       </c>
       <c r="C84">
-        <v>0.07525923175278437</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07340820523295861</v>
+      </c>
+      <c r="D84">
+        <v>0.0003472527586632667</v>
+      </c>
+      <c r="E84">
+        <v>0.03063869392164694</v>
+      </c>
+      <c r="F84">
+        <v>0.007646829606444352</v>
+      </c>
+      <c r="G84">
+        <v>-0.02546634039262214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1393425791727381</v>
+        <v>-0.1334667033537932</v>
       </c>
       <c r="C85">
-        <v>0.002544785587777271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.005877518072288242</v>
+      </c>
+      <c r="D85">
+        <v>-0.09362686874507353</v>
+      </c>
+      <c r="E85">
+        <v>0.003304186074586018</v>
+      </c>
+      <c r="F85">
+        <v>0.05705940960519441</v>
+      </c>
+      <c r="G85">
+        <v>-0.02931245347776217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08448515017939326</v>
+        <v>-0.08182702584193025</v>
       </c>
       <c r="C86">
-        <v>0.1454499870496078</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1474145385154343</v>
+      </c>
+      <c r="D86">
+        <v>0.3463556726212493</v>
+      </c>
+      <c r="E86">
+        <v>0.5353723467646581</v>
+      </c>
+      <c r="F86">
+        <v>-0.5407991128778795</v>
+      </c>
+      <c r="G86">
+        <v>0.1431232867225068</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.09070453349636796</v>
+        <v>-0.08742803442860753</v>
       </c>
       <c r="C87">
-        <v>0.1021766126591814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1005416306154306</v>
+      </c>
+      <c r="D87">
+        <v>-0.02532219182545393</v>
+      </c>
+      <c r="E87">
+        <v>-0.1577261310242381</v>
+      </c>
+      <c r="F87">
+        <v>-0.07289788999605536</v>
+      </c>
+      <c r="G87">
+        <v>0.0391525670243518</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.060420662703886</v>
+        <v>-0.05974881528793143</v>
       </c>
       <c r="C88">
-        <v>0.05912476187184508</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06026974748128174</v>
+      </c>
+      <c r="D88">
+        <v>-0.01822890700751586</v>
+      </c>
+      <c r="E88">
+        <v>0.01198955818512171</v>
+      </c>
+      <c r="F88">
+        <v>0.02614790823400289</v>
+      </c>
+      <c r="G88">
+        <v>-0.01266653919933744</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.150800796842281</v>
+        <v>-0.1527750048969597</v>
       </c>
       <c r="C89">
-        <v>-0.1960847217921606</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2050707761346</v>
+      </c>
+      <c r="D89">
+        <v>0.05062412706243505</v>
+      </c>
+      <c r="E89">
+        <v>-0.08131273971226984</v>
+      </c>
+      <c r="F89">
+        <v>-0.09549351635071496</v>
+      </c>
+      <c r="G89">
+        <v>0.005822315624794845</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1803793745783357</v>
+        <v>-0.1860397803052784</v>
       </c>
       <c r="C90">
-        <v>-0.2245492095606569</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2302593691601211</v>
+      </c>
+      <c r="D90">
+        <v>0.1075633470752593</v>
+      </c>
+      <c r="E90">
+        <v>-0.1258873547748349</v>
+      </c>
+      <c r="F90">
+        <v>-0.1411634965201021</v>
+      </c>
+      <c r="G90">
+        <v>-0.00337164462997673</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1263720303147275</v>
+        <v>-0.120480709786191</v>
       </c>
       <c r="C91">
-        <v>-0.02551505995671374</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02135095595625408</v>
+      </c>
+      <c r="D91">
+        <v>-0.04755204080121554</v>
+      </c>
+      <c r="E91">
+        <v>0.1136089809575743</v>
+      </c>
+      <c r="F91">
+        <v>0.09779776195485269</v>
+      </c>
+      <c r="G91">
+        <v>0.01113859660134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.173902034742913</v>
+        <v>-0.1761311651193848</v>
       </c>
       <c r="C92">
-        <v>-0.2584823798204385</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2710299318159856</v>
+      </c>
+      <c r="D92">
+        <v>0.08369259744054675</v>
+      </c>
+      <c r="E92">
+        <v>-0.07797712997720475</v>
+      </c>
+      <c r="F92">
+        <v>-0.1904701094907079</v>
+      </c>
+      <c r="G92">
+        <v>-0.04899945054274148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1786658633129232</v>
+        <v>-0.1869656043540636</v>
       </c>
       <c r="C93">
-        <v>-0.2187894508478534</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2245434538758622</v>
+      </c>
+      <c r="D93">
+        <v>0.05284954337318588</v>
+      </c>
+      <c r="E93">
+        <v>-0.05489051766191477</v>
+      </c>
+      <c r="F93">
+        <v>-0.09869209008554221</v>
+      </c>
+      <c r="G93">
+        <v>-0.06324128628187478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1181546585934322</v>
+        <v>-0.112296620265041</v>
       </c>
       <c r="C94">
-        <v>0.03203287215869281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03350034019245218</v>
+      </c>
+      <c r="D94">
+        <v>-0.06469363177676275</v>
+      </c>
+      <c r="E94">
+        <v>0.04988516522711397</v>
+      </c>
+      <c r="F94">
+        <v>0.06585264566990391</v>
+      </c>
+      <c r="G94">
+        <v>-0.03646900883802651</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1171518795559775</v>
+        <v>-0.1202221655220776</v>
       </c>
       <c r="C95">
-        <v>0.1011057220483506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.110866732147591</v>
+      </c>
+      <c r="D95">
+        <v>-0.0286897297499077</v>
+      </c>
+      <c r="E95">
+        <v>0.02924307913861984</v>
+      </c>
+      <c r="F95">
+        <v>-0.07888944276975832</v>
+      </c>
+      <c r="G95">
+        <v>-0.01179199121663088</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1164306623320251</v>
+        <v>-0.1143099573657078</v>
       </c>
       <c r="C96">
-        <v>0.12453775325151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1279047883964608</v>
+      </c>
+      <c r="D96">
+        <v>0.0121489030698951</v>
+      </c>
+      <c r="E96">
+        <v>-0.002115581575030314</v>
+      </c>
+      <c r="F96">
+        <v>0.06385877685920134</v>
+      </c>
+      <c r="G96">
+        <v>-0.09607245929717764</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.191970187122018</v>
+        <v>-0.1963958785429553</v>
       </c>
       <c r="C97">
-        <v>0.004293432142555111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.0003875048279502007</v>
+      </c>
+      <c r="D97">
+        <v>0.123955635827075</v>
+      </c>
+      <c r="E97">
+        <v>0.1610782497601138</v>
+      </c>
+      <c r="F97">
+        <v>0.2942199948584863</v>
+      </c>
+      <c r="G97">
+        <v>0.8116647089077696</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2029857399464105</v>
+        <v>-0.2077588578258058</v>
       </c>
       <c r="C98">
-        <v>0.02667402511794855</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03013734017551262</v>
+      </c>
+      <c r="D98">
+        <v>0.09827993073508016</v>
+      </c>
+      <c r="E98">
+        <v>-0.01196163499240934</v>
+      </c>
+      <c r="F98">
+        <v>0.09794418076126066</v>
+      </c>
+      <c r="G98">
+        <v>-0.01137762611264082</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05385377537755674</v>
+        <v>-0.05361461858618954</v>
       </c>
       <c r="C99">
-        <v>0.05995216563945544</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05949865751691669</v>
+      </c>
+      <c r="D99">
+        <v>-0.008732060676602234</v>
+      </c>
+      <c r="E99">
+        <v>-0.004454825395469653</v>
+      </c>
+      <c r="F99">
+        <v>-0.03255358542193468</v>
+      </c>
+      <c r="G99">
+        <v>0.01365177943360656</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1092603218512489</v>
+        <v>-0.1023489251909079</v>
       </c>
       <c r="C100">
-        <v>0.3862708388962256</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.3588711703011398</v>
+      </c>
+      <c r="D100">
+        <v>0.6609028817646609</v>
+      </c>
+      <c r="E100">
+        <v>-0.5398216024968674</v>
+      </c>
+      <c r="F100">
+        <v>0.09820808831795881</v>
+      </c>
+      <c r="G100">
+        <v>0.02892934493364922</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02362704645112365</v>
+        <v>-0.02631662890231684</v>
       </c>
       <c r="C101">
-        <v>0.05064805545666607</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.04880858939336614</v>
+      </c>
+      <c r="D101">
+        <v>-0.02048699481498409</v>
+      </c>
+      <c r="E101">
+        <v>0.01279748989619723</v>
+      </c>
+      <c r="F101">
+        <v>-0.06994387242514373</v>
+      </c>
+      <c r="G101">
+        <v>0.001005165815037146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
